--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,174 +78,501 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>192.168.23.128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isomper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-09-08 17:21:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad域用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yw123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows2008 域控服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>172.16.10.240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hgcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isomper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-09-08 17:21:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad域用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yw123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gg123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sp2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt,bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被编辑的用户组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>被编辑的资源组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组名称</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs资源组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs用户组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jyb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源所属部门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组部门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择的资源组部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ssh2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameAndpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加cisco资源授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属部门</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提权口令确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑方式的value值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源账号名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认口令</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT部门</t>
+  </si>
+  <si>
+    <t>流程测试</t>
+  </si>
+  <si>
+    <t>添加流程测试授权</t>
   </si>
   <si>
     <t>Debian</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows2008 域控服务器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.240</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux资源</t>
+  </si>
+  <si>
+    <t>172.16.10.182</t>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nameAndpass</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt,bm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行的操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>被编辑的用户组名称</t>
+  </si>
+  <si>
+    <t>Windows Server 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,402 +580,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执行操作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>添加server2003授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域口令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hH@1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归属域控主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>被编辑的资源组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs资源组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs用户组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行的操作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zlj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lzy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jyb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyr</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的内容</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源所属部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组部门</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择的资源组部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>app_server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root.123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>debian7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ssh2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yuan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>debian7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huawei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加cisco资源授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口令确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属部门</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提权口令确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑方式的value值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源账号名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认口令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROOT部门</t>
-  </si>
-  <si>
-    <t>流程测试</t>
-  </si>
-  <si>
-    <t>添加流程测试授权</t>
-  </si>
-  <si>
-    <t>Debian</t>
-  </si>
-  <si>
-    <t>linux资源</t>
-  </si>
-  <si>
-    <t>172.16.10.182</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>nameAndpass</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>Windows Server 2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加server2003授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域口令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hH@1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属域控主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hgcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows(172.16.10.240)-&gt;Windows2008 域控服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.191</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPV6-2008R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -661,10 +629,6 @@
   </si>
   <si>
     <t>ad3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -995,41 +959,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加命令规则授权</t>
+  </si>
+  <si>
+    <t>命令审批</t>
+  </si>
+  <si>
+    <t>172.16.10.222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orcl_10.222</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加windows授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加命令规则授权</t>
-  </si>
-  <si>
-    <t>命令审批</t>
-  </si>
-  <si>
-    <t>172.16.10.222</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>orcl_10.222</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>匿名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加windows授权</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows(172.16.10.24)-&gt;Windows2008 域控服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr--ceshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin@12345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h3c</t>
+  </si>
+  <si>
+    <t>H3C</t>
+  </si>
+  <si>
+    <t>172.16.10.208</t>
+  </si>
+  <si>
+    <t>Ssh2</t>
+  </si>
+  <si>
+    <t>ROOT部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1037,7 +1059,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,14 +1115,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
@@ -1139,8 +1153,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,6 +1188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,12 +1285,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,16 +1327,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,10 +1345,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1331,17 +1360,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1653,16 +1691,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1675,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1704,25 +1742,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>49</v>
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>56</v>
+      <c r="B2" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1735,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1750,43 +1788,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1812,25 +1850,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1856,24 +1894,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1901,42 +1939,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4">
         <v>3389</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1964,50 +2002,50 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>236</v>
+      <c r="A2" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="18" t="s">
-        <v>237</v>
+      <c r="C2" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4">
@@ -2016,82 +2054,82 @@
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17">
+      <c r="C3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>143</v>
+      <c r="A4" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="18" t="s">
-        <v>141</v>
+      <c r="C4" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
-        <v>238</v>
+      <c r="E4" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="18" t="s">
-        <v>161</v>
+      <c r="G4" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="18" t="s">
-        <v>239</v>
+      <c r="A5" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="18" t="s">
-        <v>105</v>
+      <c r="C5" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="18" t="s">
-        <v>157</v>
+      <c r="E5" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="18" t="s">
-        <v>214</v>
+      <c r="A6" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="18" t="s">
-        <v>215</v>
+      <c r="C6" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4">
@@ -2122,27 +2160,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2150,13 +2188,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2186,42 +2224,42 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>226</v>
+        <v>164</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2248,33 +2286,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2305,105 +2343,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="14.25">
+      <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="T1" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="14.25">
-      <c r="A2" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>204</v>
-      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="24" t="s">
-        <v>206</v>
+      <c r="F2" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>199</v>
+      <c r="J2" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>207</v>
+      <c r="N2" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -2411,27 +2449,27 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="14.25">
-      <c r="A3" s="23" t="s">
-        <v>200</v>
+      <c r="A3" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2440,41 +2478,41 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="14.25">
-      <c r="A4" s="23" t="s">
-        <v>218</v>
+      <c r="A4" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2484,22 +2522,22 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="U4" s="27"/>
+        <v>212</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="U4" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2514,10 +2552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2536,7 +2574,7 @@
     <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2551,22 +2589,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
@@ -2590,7 +2628,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -2598,11 +2636,11 @@
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2620,11 +2658,11 @@
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2642,11 +2680,11 @@
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2655,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -2666,11 +2704,11 @@
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -2688,13 +2726,13 @@
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2707,24 +2745,24 @@
         <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="19" t="s">
-        <v>145</v>
+      <c r="L7" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -2737,21 +2775,21 @@
         <v>10</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="19" t="s">
-        <v>145</v>
+      <c r="L8" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2768,11 +2806,11 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2785,17 +2823,17 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -2812,11 +2850,11 @@
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2833,11 +2871,11 @@
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2855,13 +2893,13 @@
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2874,12 +2912,12 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="19" t="s">
-        <v>145</v>
+      <c r="L14" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2901,7 +2939,112 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="19"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2920,7 +3063,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2946,13 +3089,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>12345678</v>
@@ -2984,23 +3127,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3026,79 +3169,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3123,15 +3266,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
@@ -3139,7 +3282,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10">
         <v>4</v>
@@ -3147,7 +3290,7 @@
     </row>
     <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="10">
         <v>4</v>
@@ -3155,7 +3298,7 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -3163,7 +3306,7 @@
     </row>
     <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -3171,7 +3314,7 @@
     </row>
     <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="10">
         <v>4</v>
@@ -3185,10 +3328,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3205,7 +3348,7 @@
     <col min="10" max="10" width="20.125" customWidth="1"/>
     <col min="11" max="11" width="6.75" customWidth="1"/>
     <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="36.875" customWidth="1"/>
     <col min="14" max="14" width="12.875" customWidth="1"/>
     <col min="15" max="15" width="26.75" customWidth="1"/>
     <col min="16" max="16" width="22.375" customWidth="1"/>
@@ -3215,76 +3358,76 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -3293,16 +3436,16 @@
     </row>
     <row r="3" spans="1:14" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3311,7 +3454,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -3319,34 +3462,34 @@
     </row>
     <row r="4" spans="1:14" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3355,32 +3498,32 @@
     </row>
     <row r="5" spans="1:14" ht="14.25">
       <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3389,34 +3532,34 @@
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -3425,16 +3568,16 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3449,19 +3592,19 @@
     </row>
     <row r="8" spans="1:14" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3475,16 +3618,16 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3497,24 +3640,24 @@
         <v>2</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25">
       <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3527,6 +3670,42 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
+    <row r="11" spans="1:14" ht="14.25">
+      <c r="A11" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="29">
+        <v>123</v>
+      </c>
+      <c r="H11" s="29">
+        <v>123</v>
+      </c>
+      <c r="I11" s="29">
+        <v>123</v>
+      </c>
+      <c r="J11" s="29">
+        <v>123</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3553,132 +3732,132 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>46</v>
+      <c r="D4" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4">
         <v>123456</v>
@@ -3689,104 +3868,121 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>83</v>
+        <v>134</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>164</v>
+        <v>134</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
-        <v>227</v>
+      <c r="A14" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="28">
+        <v>123</v>
+      </c>
+      <c r="E15" s="28">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3796,6 +3992,8 @@
     <hyperlink ref="E11" r:id="rId2"/>
     <hyperlink ref="D14" r:id="rId3"/>
     <hyperlink ref="E14" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3819,43 +4017,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="15">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/testData/common_suite_test_data.xlsx
+++ b/testData/common_suite_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="806" firstSheet="7" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="isomper" sheetId="3" r:id="rId1"/>
@@ -26,13 +26,15 @@
     <sheet name="add_client" sheetId="19" r:id="rId17"/>
     <sheet name="del_client" sheetId="20" r:id="rId18"/>
     <sheet name="add_database" sheetId="21" r:id="rId19"/>
+    <sheet name="sso" sheetId="22" r:id="rId20"/>
+    <sheet name="add_user" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="266">
   <si>
     <t>角色名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1052,6 +1054,78 @@
   </si>
   <si>
     <t>ROOT部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs资源组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyr@fort.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加运维审计授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维审计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号列表账号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议类型5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单点登录账号6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifconfig,ls,ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyya</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,12 +1231,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1731,7 +1807,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1773,8 +1849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1818,7 +1894,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>73</v>
@@ -1924,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1988,7 +2064,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2145,17 +2221,17 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2197,6 +2273,20 @@
         <v>127</v>
       </c>
       <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2552,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2569,9 +2659,10 @@
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>19</v>
@@ -2606,8 +2697,11 @@
       <c r="L1" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -2632,8 +2726,9 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -2654,8 +2749,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>21</v>
@@ -2676,8 +2772,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -2700,8 +2797,9 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -2722,8 +2820,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>149</v>
@@ -2752,8 +2851,9 @@
       <c r="L7" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -2782,8 +2882,9 @@
       <c r="L8" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>204</v>
       </c>
@@ -2803,8 +2904,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
@@ -2826,8 +2928,11 @@
         <v>76</v>
       </c>
       <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M10" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2847,8 +2952,9 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
@@ -2868,8 +2974,9 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2889,8 +2996,9 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="4" t="s">
         <v>151</v>
@@ -2919,8 +3027,9 @@
       <c r="L14" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="4" t="s">
         <v>230</v>
       </c>
@@ -2940,8 +3049,9 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="18"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="4" t="s">
         <v>231</v>
       </c>
@@ -2961,8 +3071,9 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="4" t="s">
         <v>232</v>
       </c>
@@ -2982,8 +3093,9 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="4" t="s">
         <v>233</v>
       </c>
@@ -3003,8 +3115,9 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="4" t="s">
         <v>234</v>
       </c>
@@ -3024,8 +3137,9 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="4" t="s">
         <v>235</v>
       </c>
@@ -3045,6 +3159,49 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="17"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="17"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="17"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3052,9 +3209,632 @@
     <hyperlink ref="L7" r:id="rId1"/>
     <hyperlink ref="L8" r:id="rId2"/>
     <hyperlink ref="L14" r:id="rId3"/>
+    <hyperlink ref="M10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3330,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4004,7 +4784,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
